--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K687"/>
+  <dimension ref="A1:K693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25398,6 +25398,240 @@
       <c r="K687" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="C688" t="n">
+        <v>328.92</v>
+      </c>
+      <c r="D688" t="n">
+        <v>343.8357142857143</v>
+      </c>
+      <c r="E688" t="n">
+        <v>347.67</v>
+      </c>
+      <c r="F688" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="G688" t="n">
+        <v>338.8238461538461</v>
+      </c>
+      <c r="H688" t="n">
+        <v>337.5240540540541</v>
+      </c>
+      <c r="I688" t="n">
+        <v>334.5828571428571</v>
+      </c>
+      <c r="J688" t="n">
+        <v>346.6081818181818</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>323.41</v>
+      </c>
+      <c r="C689" t="n">
+        <v>325.14</v>
+      </c>
+      <c r="D689" t="n">
+        <v>325.0685714285714</v>
+      </c>
+      <c r="E689" t="n">
+        <v>335.4</v>
+      </c>
+      <c r="F689" t="n">
+        <v>332.73</v>
+      </c>
+      <c r="G689" t="n">
+        <v>333.4323076923077</v>
+      </c>
+      <c r="H689" t="n">
+        <v>333.9518918918919</v>
+      </c>
+      <c r="I689" t="n">
+        <v>331.0142857142857</v>
+      </c>
+      <c r="J689" t="n">
+        <v>331.9636363636364</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:58+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>327.685</v>
+      </c>
+      <c r="C690" t="n">
+        <v>335.2</v>
+      </c>
+      <c r="D690" t="n">
+        <v>325.8757142857143</v>
+      </c>
+      <c r="E690" t="n">
+        <v>339.87</v>
+      </c>
+      <c r="F690" t="n">
+        <v>328.695</v>
+      </c>
+      <c r="G690" t="n">
+        <v>330.0938461538461</v>
+      </c>
+      <c r="H690" t="n">
+        <v>332.0608108108108</v>
+      </c>
+      <c r="I690" t="n">
+        <v>336.9128571428571</v>
+      </c>
+      <c r="J690" t="n">
+        <v>339.4636363636364</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:01+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>326.28</v>
+      </c>
+      <c r="C691" t="n">
+        <v>332.33</v>
+      </c>
+      <c r="D691" t="n">
+        <v>331.3257142857143</v>
+      </c>
+      <c r="E691" t="n">
+        <v>342.21</v>
+      </c>
+      <c r="F691" t="n">
+        <v>337.47</v>
+      </c>
+      <c r="G691" t="n">
+        <v>340.3930769230769</v>
+      </c>
+      <c r="H691" t="n">
+        <v>340.5454054054054</v>
+      </c>
+      <c r="I691" t="n">
+        <v>337.6128571428571</v>
+      </c>
+      <c r="J691" t="n">
+        <v>340.3254545454545</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>318.295</v>
+      </c>
+      <c r="C692" t="n">
+        <v>327.64</v>
+      </c>
+      <c r="D692" t="n">
+        <v>330.2485714285714</v>
+      </c>
+      <c r="E692" t="n">
+        <v>329.45</v>
+      </c>
+      <c r="F692" t="n">
+        <v>333.655</v>
+      </c>
+      <c r="G692" t="n">
+        <v>335.9815384615384</v>
+      </c>
+      <c r="H692" t="n">
+        <v>338.5564864864865</v>
+      </c>
+      <c r="I692" t="n">
+        <v>341.5642857142857</v>
+      </c>
+      <c r="J692" t="n">
+        <v>347.2854545454546</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:48+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>324.13</v>
+      </c>
+      <c r="C693" t="n">
+        <v>344.43</v>
+      </c>
+      <c r="D693" t="n">
+        <v>346.5642857142857</v>
+      </c>
+      <c r="E693" t="n">
+        <v>348.71</v>
+      </c>
+      <c r="F693" t="n">
+        <v>344.04</v>
+      </c>
+      <c r="G693" t="n">
+        <v>339.0684615384615</v>
+      </c>
+      <c r="H693" t="n">
+        <v>344.6754054054054</v>
+      </c>
+      <c r="I693" t="n">
+        <v>349.8371428571429</v>
+      </c>
+      <c r="J693" t="n">
+        <v>358.3509090909091</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -25412,7 +25646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B780"/>
+  <dimension ref="A1:B786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33220,6 +33454,66 @@
       </c>
       <c r="B780" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -33388,28 +33682,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6177385202431427</v>
+        <v>-0.5968346522468112</v>
       </c>
       <c r="J2" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K2" t="n">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0292248882609577</v>
+        <v>0.02783701347679124</v>
       </c>
       <c r="M2" t="n">
-        <v>20.7426415116538</v>
+        <v>20.64099047271808</v>
       </c>
       <c r="N2" t="n">
-        <v>689.6705484518612</v>
+        <v>683.6056614475558</v>
       </c>
       <c r="O2" t="n">
-        <v>26.26157932135578</v>
+        <v>26.14585361864393</v>
       </c>
       <c r="P2" t="n">
-        <v>330.4475394021447</v>
+        <v>330.2433376479502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33465,28 +33759,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7729029343963776</v>
+        <v>-0.7355164696038119</v>
       </c>
       <c r="J3" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K3" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02908039442355081</v>
+        <v>0.02683457649801113</v>
       </c>
       <c r="M3" t="n">
-        <v>28.79250987726928</v>
+        <v>28.67893854523853</v>
       </c>
       <c r="N3" t="n">
-        <v>1106.633034537401</v>
+        <v>1099.426086823108</v>
       </c>
       <c r="O3" t="n">
-        <v>33.26609436855191</v>
+        <v>33.15759470804702</v>
       </c>
       <c r="P3" t="n">
-        <v>332.3917131864782</v>
+        <v>332.0333147454352</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33542,28 +33836,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6706811992682949</v>
+        <v>-0.6123078239010858</v>
       </c>
       <c r="J4" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K4" t="n">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01135213802906365</v>
+        <v>0.009626363511777147</v>
       </c>
       <c r="M4" t="n">
-        <v>44.13845609346401</v>
+        <v>43.9687619645006</v>
       </c>
       <c r="N4" t="n">
-        <v>2125.686032228913</v>
+        <v>2113.129078911096</v>
       </c>
       <c r="O4" t="n">
-        <v>46.10516275027031</v>
+        <v>45.96878374409199</v>
       </c>
       <c r="P4" t="n">
-        <v>320.9374612989471</v>
+        <v>320.3634853632989</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -33619,28 +33913,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7844192601930652</v>
+        <v>-0.7254486277743134</v>
       </c>
       <c r="J5" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K5" t="n">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02000255187943301</v>
+        <v>0.01739229209894355</v>
       </c>
       <c r="M5" t="n">
-        <v>37.74283841287058</v>
+        <v>37.64083301948841</v>
       </c>
       <c r="N5" t="n">
-        <v>1643.658162209499</v>
+        <v>1636.719200460888</v>
       </c>
       <c r="O5" t="n">
-        <v>40.54205424259479</v>
+        <v>40.4563863989468</v>
       </c>
       <c r="P5" t="n">
-        <v>329.5789405095998</v>
+        <v>329.0035700299102</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33696,28 +33990,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7378689924480745</v>
+        <v>-0.6776875905351974</v>
       </c>
       <c r="J6" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K6" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01655178381120215</v>
+        <v>0.01419005874985357</v>
       </c>
       <c r="M6" t="n">
-        <v>39.69749804689403</v>
+        <v>39.59241195324172</v>
       </c>
       <c r="N6" t="n">
-        <v>1758.319739767971</v>
+        <v>1750.915791356127</v>
       </c>
       <c r="O6" t="n">
-        <v>41.93232332900207</v>
+        <v>41.84394569535869</v>
       </c>
       <c r="P6" t="n">
-        <v>322.5952849365104</v>
+        <v>322.0083242921272</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33773,28 +34067,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5866095665058891</v>
+        <v>-0.5521864637954765</v>
       </c>
       <c r="J7" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K7" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02051755703047875</v>
+        <v>0.01853815029153638</v>
       </c>
       <c r="M7" t="n">
-        <v>26.84767095414853</v>
+        <v>26.71667629425983</v>
       </c>
       <c r="N7" t="n">
-        <v>890.0726815487556</v>
+        <v>884.026813710055</v>
       </c>
       <c r="O7" t="n">
-        <v>29.83408590100852</v>
+        <v>29.7325884125492</v>
       </c>
       <c r="P7" t="n">
-        <v>333.7715101564825</v>
+        <v>333.438301067437</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33844,28 +34138,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.5065485602597444</v>
+        <v>-0.4649755331500678</v>
       </c>
       <c r="J8" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K8" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01210733579417389</v>
+        <v>0.0103733435286808</v>
       </c>
       <c r="M8" t="n">
-        <v>31.39424297148088</v>
+        <v>31.30242414171805</v>
       </c>
       <c r="N8" t="n">
-        <v>1122.677690552755</v>
+        <v>1116.856844319513</v>
       </c>
       <c r="O8" t="n">
-        <v>33.50638283301788</v>
+        <v>33.41940819822388</v>
       </c>
       <c r="P8" t="n">
-        <v>328.0933195284164</v>
+        <v>327.6866492731556</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33915,28 +34209,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4410463226820873</v>
+        <v>-0.3982273628814167</v>
       </c>
       <c r="J9" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K9" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008406617077425738</v>
+        <v>0.006966745159000087</v>
       </c>
       <c r="M9" t="n">
-        <v>32.77331768212892</v>
+        <v>32.6701883414231</v>
       </c>
       <c r="N9" t="n">
-        <v>1240.993214092561</v>
+        <v>1234.490947295397</v>
       </c>
       <c r="O9" t="n">
-        <v>35.2277335929032</v>
+        <v>35.13532335549792</v>
       </c>
       <c r="P9" t="n">
-        <v>326.4142883498518</v>
+        <v>325.9974697770076</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33992,28 +34286,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6131910517988621</v>
+        <v>-0.5547428771066278</v>
       </c>
       <c r="J10" t="n">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="K10" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01248673765803776</v>
+        <v>0.01038005514903939</v>
       </c>
       <c r="M10" t="n">
-        <v>38.08761256408388</v>
+        <v>38.02142627447247</v>
       </c>
       <c r="N10" t="n">
-        <v>1651.923110322933</v>
+        <v>1645.356792849913</v>
       </c>
       <c r="O10" t="n">
-        <v>40.64385698138076</v>
+        <v>40.56299782868511</v>
       </c>
       <c r="P10" t="n">
-        <v>328.416339666192</v>
+        <v>327.8537274870274</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34050,7 +34344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K687"/>
+  <dimension ref="A1:K693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69525,6 +69819,348 @@
         </is>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>-43.048793977182825,173.0718624837554</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>-43.04863454027675,173.07099019007646</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>-43.048633859033615,173.0700725834613</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>-43.048580307526116,173.06917919439465</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>-43.0484767426471,173.06828595508446</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>-43.04846025592225,173.0673846638367</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>-43.04847944137866,173.06648347490108</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>-43.04848381209782,173.0655844303019</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>-43.0486228041536,173.06469412051396</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>-43.04871811475213,173.07188370908742</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>-43.04860119613909,173.0709995196494</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>-43.04846725043602,173.0701111974379</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>-43.048470219849385,173.06919206271974</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>-43.048421297272775,173.06828824780592</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>-43.04841170853409,173.06738387192746</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>-43.04844731039659,173.06648138960153</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>-43.048451713402486,173.06558234741408</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>-43.048491078904625,173.0646855741226</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:58+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>-43.04875582543777,173.0718731581295</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>-43.048689937413414,173.07097469012868</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>-43.04847441598845,173.07010953672082</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>-43.048510325140334,173.06918737475328</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>-43.04838497875212,173.06828974961073</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>-43.04838164780274,173.06738338157487</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>-43.04843030044861,173.06648028565743</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>-43.04850477005291,173.06558579026705</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>-43.048558540156826,173.0646899510333</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:14:01+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>-43.04874343163362,173.0718766257557</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>-43.04866462056943,173.070981773707</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>-43.048522799319585,173.07009832319622</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>-43.04853131985622,173.06918492064767</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>-43.04846396140826,173.06828648360178</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-43.04847438585109,173.06738489432556</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>-43.04850661791237,173.06648523865883</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>-43.04851106643424,173.06558619884044</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>-43.048566292067925,173.06469045398077</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:41+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>-43.048672994245955,173.07189633319913</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>-43.048623249140306,173.07099334929805</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>-43.04851323679501,173.0701005394486</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>-43.04841683584839,173.06919830284463</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>-43.048429623079834,173.06828790352577</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>-43.04843466274221,173.06738424635836</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>-43.04848872793014,173.06648407759832</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>-43.04854660886424,173.0655885051972</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>-43.04862889610898,173.0646945157636</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:48+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>-43.04872446602558,173.0718819320849</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>-43.04877135708561,173.070951909104</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>-43.04865808240289,173.07006696932388</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-43.04858963851077,173.06917810367875</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>-43.048523097139785,173.06828403827683</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-43.04846245852881,173.0673846997658</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>-43.048543766549,173.0664876496089</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>-43.04862102181064,173.06559333387983</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>-43.04872842802834,173.06470097346372</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -33527,7 +33527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33618,35 +33618,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -33705,27 +33710,28 @@
       <c r="P2" t="n">
         <v>330.2433376479502</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.07268186709007 -43.04586524273455, 173.07048116669233 -43.05373059406434)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0726818670901</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-43.04586524273455</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0704811666923</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-43.05373059406434</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.0715815168912</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-43.04979791839945</v>
       </c>
     </row>
@@ -33782,27 +33788,28 @@
       <c r="P3" t="n">
         <v>332.0333147454352</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.07180197327796 -43.04573306748008, 173.06960120035487 -43.053598413168906)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.071801973278</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-43.04573306748008</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0696012003549</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-43.05359841316891</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0707015868164</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-43.04966574032449</v>
       </c>
     </row>
@@ -33859,27 +33866,28 @@
       <c r="P4" t="n">
         <v>320.3634853632989</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.0707800030009 -43.0455813944442, 173.06894538859981 -43.053496988050604)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.0707800030009</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-43.0455813944442</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.0689453885998</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-43.0534969880506</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.0698626958003</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-43.0495391912474</v>
       </c>
     </row>
@@ -33936,27 +33944,28 @@
       <c r="P5" t="n">
         <v>329.0035700299102</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.0695438001893 -43.04546097587248, 173.0686086859354 -43.05346057289169)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.0695438001893</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-43.04546097587248</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.0686086859354</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-43.05346057289169</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.0690762430623</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-43.04946077438208</v>
       </c>
     </row>
@@ -34013,27 +34022,28 @@
       <c r="P6" t="n">
         <v>322.0083242921272</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.06841208222195 -43.04542643611632, 173.06808022198808 -43.05345162747501)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.068412082222</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-43.04542643611632</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.0680802219881</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-43.05345162747501</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.068246152105</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-43.04943903179567</v>
       </c>
     </row>
@@ -34090,27 +34100,28 @@
       <c r="P7" t="n">
         <v>333.438301067437</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.06733489990862 -43.045409361026714, 173.06746586261966 -43.05343766087594)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.0673348999086</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-43.04540936102671</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.0674658626197</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-43.05343766087594</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.0674003812641</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-43.04942351095133</v>
       </c>
     </row>
@@ -34161,27 +34172,28 @@
       <c r="P8" t="n">
         <v>327.6866492731556</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.06628645022752 -43.045443469798364, 173.06680695280556 -43.053463282771055)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.0662864502275</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-43.04544346979836</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.0668069528056</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-43.05346328277106</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.0665467015165</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-43.04945337628471</v>
       </c>
     </row>
@@ -34232,27 +34244,28 @@
       <c r="P9" t="n">
         <v>325.9974697770076</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.06538915201094 -43.04547429503291, 173.06590957609887 -43.05349410946824)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.0653891520109</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-43.04547429503291</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.0659095760989</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-43.05349410946824</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.0656493640549</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-43.04948420225058</v>
       </c>
     </row>
@@ -34309,27 +34322,28 @@
       <c r="P10" t="n">
         <v>327.8537274870274</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.06449185379452 -43.04550512025238, 173.06501219939176 -43.05352493614907)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.0644918537945</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-43.04550512025238</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.0650121993918</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-43.05352493614907</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.0647520265931</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-43.04951502820072</v>
       </c>
     </row>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K693"/>
+  <dimension ref="A1:K700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25630,6 +25630,263 @@
         <v>358.3509090909091</v>
       </c>
       <c r="K693" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>316.805</v>
+      </c>
+      <c r="C694" t="n">
+        <v>326.41</v>
+      </c>
+      <c r="D694" t="n">
+        <v>336.7828571428572</v>
+      </c>
+      <c r="E694" t="n">
+        <v>342.12</v>
+      </c>
+      <c r="F694" t="n">
+        <v>336.835</v>
+      </c>
+      <c r="G694" t="n">
+        <v>334.22</v>
+      </c>
+      <c r="H694" t="n">
+        <v>337.6218918918919</v>
+      </c>
+      <c r="I694" t="n">
+        <v>349.6614285714285</v>
+      </c>
+      <c r="J694" t="n">
+        <v>357.9463636363636</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>316.665</v>
+      </c>
+      <c r="C695" t="n">
+        <v>319.67</v>
+      </c>
+      <c r="D695" t="n">
+        <v>332.7285714285715</v>
+      </c>
+      <c r="E695" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="F695" t="n">
+        <v>339.975</v>
+      </c>
+      <c r="G695" t="n">
+        <v>335.8315384615385</v>
+      </c>
+      <c r="H695" t="n">
+        <v>336.2564864864865</v>
+      </c>
+      <c r="I695" t="n">
+        <v>337.8642857142858</v>
+      </c>
+      <c r="J695" t="n">
+        <v>349.3654545454545</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="n">
+        <v>343.65</v>
+      </c>
+      <c r="D696" t="n">
+        <v>346.0714285714286</v>
+      </c>
+      <c r="E696" t="n">
+        <v>346.42</v>
+      </c>
+      <c r="F696" t="n">
+        <v>353.8</v>
+      </c>
+      <c r="G696" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="H696" t="n">
+        <v>351.6075675675676</v>
+      </c>
+      <c r="I696" t="n">
+        <v>356.0857142857143</v>
+      </c>
+      <c r="J696" t="n">
+        <v>372.2354545454546</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>305.465</v>
+      </c>
+      <c r="C697" t="n">
+        <v>328.36</v>
+      </c>
+      <c r="D697" t="n">
+        <v>341.3714285714286</v>
+      </c>
+      <c r="E697" t="n">
+        <v>344.83</v>
+      </c>
+      <c r="F697" t="n">
+        <v>348.755</v>
+      </c>
+      <c r="G697" t="n">
+        <v>349.3430769230769</v>
+      </c>
+      <c r="H697" t="n">
+        <v>352.4924324324325</v>
+      </c>
+      <c r="I697" t="n">
+        <v>353.8957142857143</v>
+      </c>
+      <c r="J697" t="n">
+        <v>366.6927272727273</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>314.705</v>
+      </c>
+      <c r="C698" t="n">
+        <v>317.86</v>
+      </c>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="n">
+        <v>328.5884615384616</v>
+      </c>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>298.57</v>
+      </c>
+      <c r="C699" t="n">
+        <v>331.03</v>
+      </c>
+      <c r="D699" t="n">
+        <v>356.4328571428572</v>
+      </c>
+      <c r="E699" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="F699" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="G699" t="n">
+        <v>361.0476923076923</v>
+      </c>
+      <c r="H699" t="n">
+        <v>356.4556756756756</v>
+      </c>
+      <c r="I699" t="n">
+        <v>364.1214285714286</v>
+      </c>
+      <c r="J699" t="n">
+        <v>388.8418181818182</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>294.655</v>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="n">
+        <v>342.5828571428572</v>
+      </c>
+      <c r="E700" t="n">
+        <v>341.18</v>
+      </c>
+      <c r="F700" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="G700" t="n">
+        <v>355.8446153846153</v>
+      </c>
+      <c r="H700" t="n">
+        <v>347.3008108108108</v>
+      </c>
+      <c r="I700" t="n">
+        <v>346.2814285714286</v>
+      </c>
+      <c r="J700" t="n">
+        <v>376.6445454545454</v>
+      </c>
+      <c r="K700" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -25646,7 +25903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33514,6 +33771,76 @@
       </c>
       <c r="B786" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -33687,28 +34014,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5968346522468112</v>
+        <v>-0.6110217925129241</v>
       </c>
       <c r="J2" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K2" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02783701347679124</v>
+        <v>0.02967081449904307</v>
       </c>
       <c r="M2" t="n">
-        <v>20.64099047271808</v>
+        <v>20.5041226139933</v>
       </c>
       <c r="N2" t="n">
-        <v>683.6056614475558</v>
+        <v>677.7033675702394</v>
       </c>
       <c r="O2" t="n">
-        <v>26.14585361864393</v>
+        <v>26.03273645950881</v>
       </c>
       <c r="P2" t="n">
-        <v>330.2433376479502</v>
+        <v>330.3840272783465</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33765,28 +34092,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7355164696038119</v>
+        <v>-0.7078850048932905</v>
       </c>
       <c r="J3" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K3" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02683457649801113</v>
+        <v>0.02533766432597351</v>
       </c>
       <c r="M3" t="n">
-        <v>28.67893854523853</v>
+        <v>28.51910790635175</v>
       </c>
       <c r="N3" t="n">
-        <v>1099.426086823108</v>
+        <v>1091.031062434285</v>
       </c>
       <c r="O3" t="n">
-        <v>33.15759470804702</v>
+        <v>33.03075933783971</v>
       </c>
       <c r="P3" t="n">
-        <v>332.0333147454352</v>
+        <v>331.7658972051003</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33843,28 +34170,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6123078239010858</v>
+        <v>-0.5389955301213087</v>
       </c>
       <c r="J4" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K4" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009626363511777147</v>
+        <v>0.007571662018608372</v>
       </c>
       <c r="M4" t="n">
-        <v>43.9687619645006</v>
+        <v>43.87439937977798</v>
       </c>
       <c r="N4" t="n">
-        <v>2113.129078911096</v>
+        <v>2106.230942937233</v>
       </c>
       <c r="O4" t="n">
-        <v>45.96878374409199</v>
+        <v>45.89369175537345</v>
       </c>
       <c r="P4" t="n">
-        <v>320.3634853632989</v>
+        <v>319.6348282201366</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33921,28 +34248,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7254486277743134</v>
+        <v>-0.6593893470133485</v>
       </c>
       <c r="J5" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K5" t="n">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01739229209894355</v>
+        <v>0.01458808309230919</v>
       </c>
       <c r="M5" t="n">
-        <v>37.64083301948841</v>
+        <v>37.5693743029813</v>
       </c>
       <c r="N5" t="n">
-        <v>1636.719200460888</v>
+        <v>1632.434008295813</v>
       </c>
       <c r="O5" t="n">
-        <v>40.4563863989468</v>
+        <v>40.40339104946283</v>
       </c>
       <c r="P5" t="n">
-        <v>329.0035700299102</v>
+        <v>328.3519640305181</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33999,28 +34326,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6776875905351974</v>
+        <v>-0.5963125038111223</v>
       </c>
       <c r="J6" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K6" t="n">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01419005874985357</v>
+        <v>0.0111169518269405</v>
       </c>
       <c r="M6" t="n">
-        <v>39.59241195324172</v>
+        <v>39.58452608560332</v>
       </c>
       <c r="N6" t="n">
-        <v>1750.915791356127</v>
+        <v>1752.686554543141</v>
       </c>
       <c r="O6" t="n">
-        <v>41.84394569535869</v>
+        <v>41.86509948086999</v>
       </c>
       <c r="P6" t="n">
-        <v>322.0083242921272</v>
+        <v>321.20622299728</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34077,28 +34404,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5521864637954765</v>
+        <v>-0.4921595327031023</v>
       </c>
       <c r="J7" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K7" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01853815029153638</v>
+        <v>0.01497927884079842</v>
       </c>
       <c r="M7" t="n">
-        <v>26.71667629425983</v>
+        <v>26.6480007237901</v>
       </c>
       <c r="N7" t="n">
-        <v>884.026813710055</v>
+        <v>883.1823598979407</v>
       </c>
       <c r="O7" t="n">
-        <v>29.7325884125492</v>
+        <v>29.7183842073882</v>
       </c>
       <c r="P7" t="n">
-        <v>333.438301067437</v>
+        <v>332.8510283615765</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34149,28 +34476,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4649755331500678</v>
+        <v>-0.4083299815172474</v>
       </c>
       <c r="J8" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K8" t="n">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0103733435286808</v>
+        <v>0.008105432442339633</v>
       </c>
       <c r="M8" t="n">
-        <v>31.30242414171805</v>
+        <v>31.28239411596223</v>
       </c>
       <c r="N8" t="n">
-        <v>1116.856844319513</v>
+        <v>1115.753734631344</v>
       </c>
       <c r="O8" t="n">
-        <v>33.41940819822388</v>
+        <v>33.4029000931258</v>
       </c>
       <c r="P8" t="n">
-        <v>327.6866492731556</v>
+        <v>327.1269702775238</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34221,28 +34548,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.3982273628814167</v>
+        <v>-0.3338662363293015</v>
       </c>
       <c r="J9" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K9" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006966745159000087</v>
+        <v>0.004952705225605758</v>
       </c>
       <c r="M9" t="n">
-        <v>32.6701883414231</v>
+        <v>32.67381405887335</v>
       </c>
       <c r="N9" t="n">
-        <v>1234.490947295397</v>
+        <v>1235.035842350431</v>
       </c>
       <c r="O9" t="n">
-        <v>35.13532335549792</v>
+        <v>35.1430767342649</v>
       </c>
       <c r="P9" t="n">
-        <v>325.9974697770076</v>
+        <v>325.3649474950631</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34299,28 +34626,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5547428771066278</v>
+        <v>-0.452714199328717</v>
       </c>
       <c r="J10" t="n">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K10" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01038005514903939</v>
+        <v>0.006941650641204666</v>
       </c>
       <c r="M10" t="n">
-        <v>38.02142627447247</v>
+        <v>38.18475218920199</v>
       </c>
       <c r="N10" t="n">
-        <v>1645.356792849913</v>
+        <v>1659.986092399277</v>
       </c>
       <c r="O10" t="n">
-        <v>40.56299782868511</v>
+        <v>40.74292690025199</v>
       </c>
       <c r="P10" t="n">
-        <v>327.8537274870274</v>
+        <v>326.8612238827091</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34358,7 +34685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K693"/>
+  <dimension ref="A1:K700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70175,6 +70502,373 @@
         </is>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>-43.04865985063777,173.07190001060061</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>-43.048612399063764,173.07099638511147</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>-43.04857124606117,173.07008709495736</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>-43.04853051236714,173.06918501503637</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-43.04845824585427,173.06828671994572</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-43.04841880120431,173.06738398762363</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>-43.04848032141312,173.0664835320153</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>-43.04861944129047,173.06559323131918</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>-43.04872478920944,173.06470073737424</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:13:40+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>-43.04865861566786,173.07190035612822</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>-43.04855294417102,173.07101302036284</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>-43.048535253429726,173.07009543677628</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>-43.04851669533192,173.0691866301317</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>-43.04848650859364,173.0682855512524</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>-43.04843331208724,173.06738422432633</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>-43.048468039827206,173.06648273494054</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>-43.04851332799162,173.06558634559335</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>-43.04864760536247,173.06469572963135</t>
+        </is>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>-43.04876447655016,173.07095383426335</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>-43.04865370697758,173.07006798339617</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>-43.04856909240027,173.0691805053508</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>-43.048610945652946,173.06828040563948</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>-43.04861041412014,173.06738711323848</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>-43.04860612014961,173.06649169637015</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>-43.04867722664971,173.0655969810397</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>-43.04885331719757,173.06470907638982</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>-43.04855981807133,173.07192799828954</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>-43.04862960040458,173.07099157223604</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>-43.04861198190661,173.07007765381724</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>-43.04855482676018,173.06918217288634</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>-43.04856553625262,173.06828228337184</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>-43.04855497492988,173.06738620890508</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>-43.048614079356085,173.06649221292486</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>-43.04865752797161,173.06559570278193</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>-43.04880346129114,173.06470584168798</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>-43.048641326089076,173.07190519351283</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>-43.048536977797255,173.07101748768747</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>-43.04836809276784,173.06738316046443</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>-43.04849899579681,173.0719450154511</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>-43.04865315300927,173.07098498229456</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>-43.048745692365664,173.07004666433355</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>-43.04866572192323,173.06916921013695</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>-43.04868583290893,173.06827730895697</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>-43.04866036757298,173.06738792808903</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>-43.048649728043685,173.0664945265362</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>-43.04874950653433,173.06560167132724</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>-43.04900268866274,173.06471876779406</t>
+        </is>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>-43.048464460740334,173.0719546778274</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>-43.04862273657546,173.07007516126012</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>-43.04852207859241,173.06918600087386</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>-43.04856886657536,173.06828214565917</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>-43.04861351716327,173.0673871638559</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>-43.048567381616984,173.06648918223058</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>-43.04858903876406,173.06559125848707</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>-43.04889297623378,173.06471164951216</t>
+        </is>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K700"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25864,7 +25864,9 @@
       <c r="B700" t="n">
         <v>294.655</v>
       </c>
-      <c r="C700" t="inlineStr"/>
+      <c r="C700" t="n">
+        <v>283.87</v>
+      </c>
       <c r="D700" t="n">
         <v>342.5828571428572</v>
       </c>
@@ -25889,6 +25891,199 @@
       <c r="K700" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:12+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>311.575</v>
+      </c>
+      <c r="C701" t="n">
+        <v>306.83</v>
+      </c>
+      <c r="D701" t="n">
+        <v>270.9585714285714</v>
+      </c>
+      <c r="E701" t="n">
+        <v>283.14</v>
+      </c>
+      <c r="F701" t="n">
+        <v>272.695</v>
+      </c>
+      <c r="G701" t="n">
+        <v>290.9892307692308</v>
+      </c>
+      <c r="H701" t="n">
+        <v>293.017027027027</v>
+      </c>
+      <c r="I701" t="n">
+        <v>288.8642857142857</v>
+      </c>
+      <c r="J701" t="n">
+        <v>285.5463636363637</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>298.935</v>
+      </c>
+      <c r="C702" t="n">
+        <v>291.88</v>
+      </c>
+      <c r="D702" t="n">
+        <v>265.6285714285714</v>
+      </c>
+      <c r="E702" t="n">
+        <v>275.19</v>
+      </c>
+      <c r="F702" t="n">
+        <v>269.355</v>
+      </c>
+      <c r="G702" t="n">
+        <v>286.9015384615385</v>
+      </c>
+      <c r="H702" t="n">
+        <v>288.2464864864865</v>
+      </c>
+      <c r="I702" t="n">
+        <v>284.9242857142858</v>
+      </c>
+      <c r="J702" t="n">
+        <v>279.6754545454546</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>304.025</v>
+      </c>
+      <c r="C703" t="n">
+        <v>292.35</v>
+      </c>
+      <c r="D703" t="n">
+        <v>268.4414285714286</v>
+      </c>
+      <c r="E703" t="n">
+        <v>282.19</v>
+      </c>
+      <c r="F703" t="n">
+        <v>262.245</v>
+      </c>
+      <c r="G703" t="n">
+        <v>296.57</v>
+      </c>
+      <c r="H703" t="n">
+        <v>290.7643243243243</v>
+      </c>
+      <c r="I703" t="n">
+        <v>291.8057142857143</v>
+      </c>
+      <c r="J703" t="n">
+        <v>286.610909090909</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>300.88</v>
+      </c>
+      <c r="C704" t="n">
+        <v>283.04</v>
+      </c>
+      <c r="D704" t="n">
+        <v>264.7385714285714</v>
+      </c>
+      <c r="E704" t="n">
+        <v>274.97</v>
+      </c>
+      <c r="F704" t="n">
+        <v>262.36</v>
+      </c>
+      <c r="G704" t="n">
+        <v>281.0684615384615</v>
+      </c>
+      <c r="H704" t="n">
+        <v>288.4116216216216</v>
+      </c>
+      <c r="I704" t="n">
+        <v>284.1142857142857</v>
+      </c>
+      <c r="J704" t="n">
+        <v>280.6981818181818</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>293.615</v>
+      </c>
+      <c r="C705" t="n">
+        <v>276.37</v>
+      </c>
+      <c r="D705" t="n">
+        <v>258.6728571428571</v>
+      </c>
+      <c r="E705" t="n">
+        <v>267</v>
+      </c>
+      <c r="F705" t="n">
+        <v>254.605</v>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="n">
+        <v>282.5518918918919</v>
+      </c>
+      <c r="I705" t="n">
+        <v>279.6314285714286</v>
+      </c>
+      <c r="J705" t="n">
+        <v>277.6163636363636</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25903,7 +26098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B793"/>
+  <dimension ref="A1:B798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33841,6 +34036,56 @@
       </c>
       <c r="B793" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -34014,28 +34259,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6110217925129241</v>
+        <v>-0.6318994266702929</v>
       </c>
       <c r="J2" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K2" t="n">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02967081449904307</v>
+        <v>0.03211615986258975</v>
       </c>
       <c r="M2" t="n">
-        <v>20.5041226139933</v>
+        <v>20.42769243788376</v>
       </c>
       <c r="N2" t="n">
-        <v>677.7033675702394</v>
+        <v>673.4809206474812</v>
       </c>
       <c r="O2" t="n">
-        <v>26.03273645950881</v>
+        <v>25.95151095114658</v>
       </c>
       <c r="P2" t="n">
-        <v>330.3840272783465</v>
+        <v>330.5921823992793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34092,28 +34337,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7078850048932905</v>
+        <v>-0.7535582163127685</v>
       </c>
       <c r="J3" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K3" t="n">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02533766432597351</v>
+        <v>0.02899908160600895</v>
       </c>
       <c r="M3" t="n">
-        <v>28.51910790635175</v>
+        <v>28.497450602238</v>
       </c>
       <c r="N3" t="n">
-        <v>1091.031062434285</v>
+        <v>1086.830760006642</v>
       </c>
       <c r="O3" t="n">
-        <v>33.03075933783971</v>
+        <v>32.96711634351179</v>
       </c>
       <c r="P3" t="n">
-        <v>331.7658972051003</v>
+        <v>332.211460089806</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34170,28 +34415,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5389955301213087</v>
+        <v>-0.6028481853617049</v>
       </c>
       <c r="J4" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K4" t="n">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007571662018608372</v>
+        <v>0.009549297706396342</v>
       </c>
       <c r="M4" t="n">
-        <v>43.87439937977798</v>
+        <v>43.85902473528448</v>
       </c>
       <c r="N4" t="n">
-        <v>2106.230942937233</v>
+        <v>2101.715723774681</v>
       </c>
       <c r="O4" t="n">
-        <v>45.89369175537345</v>
+        <v>45.84447320860696</v>
       </c>
       <c r="P4" t="n">
-        <v>319.6348282201366</v>
+        <v>320.2745768818264</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34248,28 +34493,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6593893470133485</v>
+        <v>-0.7138420881366816</v>
       </c>
       <c r="J5" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K5" t="n">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01458808309230919</v>
+        <v>0.0172250490627166</v>
       </c>
       <c r="M5" t="n">
-        <v>37.5693743029813</v>
+        <v>37.57462887794969</v>
       </c>
       <c r="N5" t="n">
-        <v>1632.434008295813</v>
+        <v>1628.974994817176</v>
       </c>
       <c r="O5" t="n">
-        <v>40.40339104946283</v>
+        <v>40.36056236993206</v>
       </c>
       <c r="P5" t="n">
-        <v>328.3519640305181</v>
+        <v>328.8934802221144</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34326,28 +34571,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5963125038111223</v>
+        <v>-0.6601905913515544</v>
       </c>
       <c r="J6" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K6" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0111169518269405</v>
+        <v>0.01370184131514041</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58452608560332</v>
+        <v>39.63044725389715</v>
       </c>
       <c r="N6" t="n">
-        <v>1752.686554543141</v>
+        <v>1752.493924132676</v>
       </c>
       <c r="O6" t="n">
-        <v>41.86509948086999</v>
+        <v>41.86279880911782</v>
       </c>
       <c r="P6" t="n">
-        <v>321.20622299728</v>
+        <v>321.8408845187358</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34404,28 +34649,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4921595327031023</v>
+        <v>-0.5324450539302845</v>
       </c>
       <c r="J7" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K7" t="n">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01497927884079842</v>
+        <v>0.01759371252992159</v>
       </c>
       <c r="M7" t="n">
-        <v>26.6480007237901</v>
+        <v>26.7178061648825</v>
       </c>
       <c r="N7" t="n">
-        <v>883.1823598979407</v>
+        <v>883.9241319392131</v>
       </c>
       <c r="O7" t="n">
-        <v>29.7183842073882</v>
+        <v>29.73086160775051</v>
       </c>
       <c r="P7" t="n">
-        <v>332.8510283615765</v>
+        <v>333.2478263185343</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34476,28 +34721,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4083299815172474</v>
+        <v>-0.4503857006237277</v>
       </c>
       <c r="J8" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K8" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008105432442339633</v>
+        <v>0.009947187902148658</v>
       </c>
       <c r="M8" t="n">
-        <v>31.28239411596223</v>
+        <v>31.26505722945947</v>
       </c>
       <c r="N8" t="n">
-        <v>1115.753734631344</v>
+        <v>1113.110018775174</v>
       </c>
       <c r="O8" t="n">
-        <v>33.4029000931258</v>
+        <v>33.36330347515327</v>
       </c>
       <c r="P8" t="n">
-        <v>327.1269702775238</v>
+        <v>327.5456304868418</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34548,28 +34793,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.3338662363293015</v>
+        <v>-0.3801292015084318</v>
       </c>
       <c r="J9" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K9" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004952705225605758</v>
+        <v>0.006474627987689274</v>
       </c>
       <c r="M9" t="n">
-        <v>32.67381405887335</v>
+        <v>32.67000871928624</v>
       </c>
       <c r="N9" t="n">
-        <v>1235.035842350431</v>
+        <v>1232.788793205211</v>
       </c>
       <c r="O9" t="n">
-        <v>35.1430767342649</v>
+        <v>35.11109216764996</v>
       </c>
       <c r="P9" t="n">
-        <v>325.3649474950631</v>
+        <v>325.8231483687834</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34626,28 +34871,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.452714199328717</v>
+        <v>-0.5035322329903748</v>
       </c>
       <c r="J10" t="n">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="K10" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006941650641204666</v>
+        <v>0.008665729897935348</v>
       </c>
       <c r="M10" t="n">
-        <v>38.18475218920199</v>
+        <v>38.13985188150181</v>
       </c>
       <c r="N10" t="n">
-        <v>1659.986092399277</v>
+        <v>1655.198902685779</v>
       </c>
       <c r="O10" t="n">
-        <v>40.74292690025199</v>
+        <v>40.68413576181482</v>
       </c>
       <c r="P10" t="n">
-        <v>326.8612238827091</v>
+        <v>327.3594843220966</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34685,7 +34930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K700"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70827,7 +71072,11 @@
           <t>-43.048464460740334,173.0719546778274</t>
         </is>
       </c>
-      <c r="C700" t="inlineStr"/>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>-43.04823714513534,173.07110137917235</t>
+        </is>
+      </c>
       <c r="D700" t="inlineStr">
         <is>
           <t>-43.04862273657546,173.07007516126012</t>
@@ -70866,6 +71115,287 @@
       <c r="K700" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:13:12+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>-43.048613715689754,173.07191291851427</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>-43.048439679945666,173.07104471116835</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>-43.04798687933477,173.07022252926873</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>-43.04800133782229,173.06924687057463</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>-43.04788092986457,173.06831059232255</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>-43.04802953550066,173.06737763793336</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>-43.048079108337134,173.0664574934595</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>-43.048072581277744,173.0655577456566</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>-43.04807356323748,173.06465848577025</t>
+        </is>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>-43.04850221554022,173.07194411461597</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>-43.04830780297166,173.0710816095843</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>-43.0479395613085,173.07023349569982</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>-43.047930009609345,173.06925520809173</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>-43.04785086694724,173.0683118354308</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>-43.0479927284183,173.0673770375417</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>-43.0480361981447,173.0664547086269</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>-43.048037141642226,173.0655554460062</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>-43.04802075538159,173.06465505963126</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>-43.048547115522595,173.0719315522753</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>-43.04831194893696,173.07108044956962</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>-43.04796453294999,173.07022770827152</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>-43.04799281432524,173.06924786688273</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>-43.04778687073647,173.0683144816842</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>-43.0480797867954,173.06737845762623</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>-43.04805884566346,173.06645617842986</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>-43.048099038931504,173.06555946247497</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>-43.04808313864765,173.0646591070172</t>
+        </is>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>-43.048519372802836,173.0719393142738</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>-43.04822982353658,173.07110342770386</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>-43.04793166017452,173.07023532686586</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>-43.04792803574682,173.0692554388152</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>-43.04778790583693,173.0683144388827</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>-43.04794020525164,173.06737618079288</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>-43.04803768350687,173.0664548050255</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>-43.048029855828794,173.06555497323575</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>-43.048029954644235,173.06465565647295</t>
+        </is>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>-43.04845528667663,173.07195724458708</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>-43.04817098610871,173.07111988998153</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>-43.047877810711356,173.07024780699936</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>-43.04785652809028,173.0692637972874</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>-43.047718104061865,173.068317325191</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>-43.047984976244315,173.0664513843772</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>-43.04798953328442,173.06555235674105</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>-43.0480022341994,173.06465385799055</t>
+        </is>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26082,6 +26082,84 @@
         <v>277.6163636363636</v>
       </c>
       <c r="K705" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>299.27</v>
+      </c>
+      <c r="C706" t="n">
+        <v>289.23</v>
+      </c>
+      <c r="D706" t="n">
+        <v>265.05</v>
+      </c>
+      <c r="E706" t="n">
+        <v>276.34</v>
+      </c>
+      <c r="F706" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="G706" t="n">
+        <v>284.7176923076923</v>
+      </c>
+      <c r="H706" t="n">
+        <v>288.4405405405405</v>
+      </c>
+      <c r="I706" t="n">
+        <v>289.28</v>
+      </c>
+      <c r="J706" t="n">
+        <v>283.0309090909091</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>296.405</v>
+      </c>
+      <c r="C707" t="n">
+        <v>282.31</v>
+      </c>
+      <c r="D707" t="n">
+        <v>264.2728571428572</v>
+      </c>
+      <c r="E707" t="n">
+        <v>270.95</v>
+      </c>
+      <c r="F707" t="n">
+        <v>255.225</v>
+      </c>
+      <c r="G707" t="n">
+        <v>279.2938461538461</v>
+      </c>
+      <c r="H707" t="n">
+        <v>283.9521621621622</v>
+      </c>
+      <c r="I707" t="n">
+        <v>282.6614285714286</v>
+      </c>
+      <c r="J707" t="n">
+        <v>276.5518181818182</v>
+      </c>
+      <c r="K707" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26098,7 +26176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B798"/>
+  <dimension ref="A1:B800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34086,6 +34164,26 @@
       </c>
       <c r="B798" t="n">
         <v>-0.13</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -34259,28 +34357,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6318994266702929</v>
+        <v>-0.6425339499406596</v>
       </c>
       <c r="J2" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K2" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03211615986258975</v>
+        <v>0.03334167041302627</v>
       </c>
       <c r="M2" t="n">
-        <v>20.42769243788376</v>
+        <v>20.40917998856204</v>
       </c>
       <c r="N2" t="n">
-        <v>673.4809206474812</v>
+        <v>672.0712134519187</v>
       </c>
       <c r="O2" t="n">
-        <v>25.95151095114658</v>
+        <v>25.9243363165177</v>
       </c>
       <c r="P2" t="n">
-        <v>330.5921823992793</v>
+        <v>330.6984948910264</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34337,28 +34435,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7535582163127685</v>
+        <v>-0.7702838852349477</v>
       </c>
       <c r="J3" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K3" t="n">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02899908160600895</v>
+        <v>0.03038783742152973</v>
       </c>
       <c r="M3" t="n">
-        <v>28.497450602238</v>
+        <v>28.49907114185488</v>
       </c>
       <c r="N3" t="n">
-        <v>1086.830760006642</v>
+        <v>1085.646103224715</v>
       </c>
       <c r="O3" t="n">
-        <v>32.96711634351179</v>
+        <v>32.94914419563451</v>
       </c>
       <c r="P3" t="n">
-        <v>332.211460089806</v>
+        <v>332.3752383150861</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34415,28 +34513,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6028481853617049</v>
+        <v>-0.6282640406990802</v>
       </c>
       <c r="J4" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K4" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009549297706396342</v>
+        <v>0.01040374493412055</v>
       </c>
       <c r="M4" t="n">
-        <v>43.85902473528448</v>
+        <v>43.85269958504937</v>
       </c>
       <c r="N4" t="n">
-        <v>2101.715723774681</v>
+        <v>2099.953584946363</v>
       </c>
       <c r="O4" t="n">
-        <v>45.84447320860696</v>
+        <v>45.82525051700605</v>
       </c>
       <c r="P4" t="n">
-        <v>320.2745768818264</v>
+        <v>320.529961357824</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34493,28 +34591,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7138420881366816</v>
+        <v>-0.7367394901895934</v>
       </c>
       <c r="J5" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K5" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0172250490627166</v>
+        <v>0.01839428121468312</v>
       </c>
       <c r="M5" t="n">
-        <v>37.57462887794969</v>
+        <v>37.58249686174105</v>
       </c>
       <c r="N5" t="n">
-        <v>1628.974994817176</v>
+        <v>1628.043523464254</v>
       </c>
       <c r="O5" t="n">
-        <v>40.36056236993206</v>
+        <v>40.34902134456615</v>
       </c>
       <c r="P5" t="n">
-        <v>328.8934802221144</v>
+        <v>329.121852193862</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34571,28 +34669,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6601905913515544</v>
+        <v>-0.6889569915862856</v>
       </c>
       <c r="J6" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K6" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01370184131514041</v>
+        <v>0.01493785865132125</v>
       </c>
       <c r="M6" t="n">
-        <v>39.63044725389715</v>
+        <v>39.66630070969279</v>
       </c>
       <c r="N6" t="n">
-        <v>1752.493924132676</v>
+        <v>1753.958290369362</v>
       </c>
       <c r="O6" t="n">
-        <v>41.86279880911782</v>
+        <v>41.88028522311377</v>
       </c>
       <c r="P6" t="n">
-        <v>321.8408845187358</v>
+        <v>322.1274924485181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34649,28 +34747,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5324450539302845</v>
+        <v>-0.5564827697054223</v>
       </c>
       <c r="J7" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K7" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01759371252992159</v>
+        <v>0.01921518380146681</v>
       </c>
       <c r="M7" t="n">
-        <v>26.7178061648825</v>
+        <v>26.77644372485266</v>
       </c>
       <c r="N7" t="n">
-        <v>883.9241319392131</v>
+        <v>885.6687819018596</v>
       </c>
       <c r="O7" t="n">
-        <v>29.73086160775051</v>
+        <v>29.76018786738181</v>
       </c>
       <c r="P7" t="n">
-        <v>333.2478263185343</v>
+        <v>333.4853845324567</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34721,28 +34819,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4503857006237277</v>
+        <v>-0.4681625278236055</v>
       </c>
       <c r="J8" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K8" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009947187902148658</v>
+        <v>0.01078052607712054</v>
       </c>
       <c r="M8" t="n">
-        <v>31.26505722945947</v>
+        <v>31.26282440925372</v>
       </c>
       <c r="N8" t="n">
-        <v>1113.110018775174</v>
+        <v>1112.383493203756</v>
       </c>
       <c r="O8" t="n">
-        <v>33.36330347515327</v>
+        <v>33.35241360387214</v>
       </c>
       <c r="P8" t="n">
-        <v>327.5456304868418</v>
+        <v>327.723093205536</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34793,28 +34891,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.3801292015084318</v>
+        <v>-0.3980496190728113</v>
       </c>
       <c r="J9" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K9" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006474627987689274</v>
+        <v>0.007123495731388041</v>
       </c>
       <c r="M9" t="n">
-        <v>32.67000871928624</v>
+        <v>32.66539255936263</v>
       </c>
       <c r="N9" t="n">
-        <v>1232.788793205211</v>
+        <v>1231.759603382526</v>
       </c>
       <c r="O9" t="n">
-        <v>35.11109216764996</v>
+        <v>35.0964329153623</v>
       </c>
       <c r="P9" t="n">
-        <v>325.8231483687834</v>
+        <v>326.0011531067848</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34871,28 +34969,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5035322329903748</v>
+        <v>-0.5246277772661192</v>
       </c>
       <c r="J10" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K10" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008665729897935348</v>
+        <v>0.009437689065709742</v>
       </c>
       <c r="M10" t="n">
-        <v>38.13985188150181</v>
+        <v>38.12556499875353</v>
       </c>
       <c r="N10" t="n">
-        <v>1655.198902685779</v>
+        <v>1653.667534075836</v>
       </c>
       <c r="O10" t="n">
-        <v>40.68413576181482</v>
+        <v>40.66531118872492</v>
       </c>
       <c r="P10" t="n">
-        <v>327.3594843220966</v>
+        <v>327.5669577538876</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34930,7 +35028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K705"/>
+  <dimension ref="A1:K707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36100,7 +36198,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-43.047933023034986,173.06464936762748</t>
+          <t>-43.04793302303499,173.06464936762748</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -71399,6 +71497,120 @@
         </is>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>-43.048505170647154,173.071943287822</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>-43.04828442678409,173.07108815008974</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>-43.04793442493729,173.07023468610475</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>-43.04794032752703,173.069254002037</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>-43.04776927402858,173.0683152093099</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>-43.04797306426564,173.06737671678326</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>-43.04803794362758,173.06645482190712</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>-43.04807632055763,173.06555798829572</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>-43.048050937140104,173.06465701780317</t>
+        </is>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-43.048479897866606,173.07195035875887</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>-43.048223384058105,173.07110522942392</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>-43.04792752571274,173.07023628506812</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>-43.04789196789516,173.06925965475966</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>-43.04772368460353,173.06831709443546</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>-43.04792422596296,173.06737592014179</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>-43.047997571434955,173.06645220179186</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>-43.048016787623716,173.06555412525094</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>-43.047992658789084,173.06465323674522</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K707"/>
+  <dimension ref="A1:K709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26160,6 +26160,66 @@
         <v>276.5518181818182</v>
       </c>
       <c r="K707" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>305.305</v>
+      </c>
+      <c r="C708" t="n">
+        <v>305.81</v>
+      </c>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>284.26</v>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="n">
+        <v>249.8042857142857</v>
+      </c>
+      <c r="E709" t="n">
+        <v>250.58</v>
+      </c>
+      <c r="F709" t="n">
+        <v>246.77</v>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="n">
+        <v>270.8140540540541</v>
+      </c>
+      <c r="I709" t="n">
+        <v>270.0671428571429</v>
+      </c>
+      <c r="J709" t="n">
+        <v>263.2636363636364</v>
+      </c>
+      <c r="K709" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26176,7 +26236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B800"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34184,6 +34244,26 @@
       </c>
       <c r="B800" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>-0.86</v>
       </c>
     </row>
   </sheetData>
@@ -34357,28 +34437,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6425339499406596</v>
+        <v>-0.6549384372213779</v>
       </c>
       <c r="J2" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K2" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03334167041302627</v>
+        <v>0.03473704318786697</v>
       </c>
       <c r="M2" t="n">
-        <v>20.40917998856204</v>
+        <v>20.40014956083613</v>
       </c>
       <c r="N2" t="n">
-        <v>672.0712134519187</v>
+        <v>671.403335829223</v>
       </c>
       <c r="O2" t="n">
-        <v>25.9243363165177</v>
+        <v>25.91145182789307</v>
       </c>
       <c r="P2" t="n">
-        <v>330.6984948910264</v>
+        <v>330.8227496923341</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34435,28 +34515,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7702838852349477</v>
+        <v>-0.7723483189799865</v>
       </c>
       <c r="J3" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K3" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03038783742152973</v>
+        <v>0.03064094867995482</v>
       </c>
       <c r="M3" t="n">
-        <v>28.49907114185488</v>
+        <v>28.4632335094794</v>
       </c>
       <c r="N3" t="n">
-        <v>1085.646103224715</v>
+        <v>1083.899242347857</v>
       </c>
       <c r="O3" t="n">
-        <v>32.94914419563451</v>
+        <v>32.92262508287967</v>
       </c>
       <c r="P3" t="n">
-        <v>332.3752383150861</v>
+        <v>332.3954751812546</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34513,28 +34593,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6282640406990802</v>
+        <v>-0.6455366312604123</v>
       </c>
       <c r="J4" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K4" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01040374493412055</v>
+        <v>0.01098670421055004</v>
       </c>
       <c r="M4" t="n">
-        <v>43.85269958504937</v>
+        <v>43.87504105727122</v>
       </c>
       <c r="N4" t="n">
-        <v>2099.953584946363</v>
+        <v>2101.423464588308</v>
       </c>
       <c r="O4" t="n">
-        <v>45.82525051700605</v>
+        <v>45.84128559048392</v>
       </c>
       <c r="P4" t="n">
-        <v>320.529961357824</v>
+        <v>320.7039277862231</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34591,28 +34671,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7367394901895934</v>
+        <v>-0.7552186201558847</v>
       </c>
       <c r="J5" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K5" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01839428121468312</v>
+        <v>0.01930345238507436</v>
       </c>
       <c r="M5" t="n">
-        <v>37.58249686174105</v>
+        <v>37.6269849846649</v>
       </c>
       <c r="N5" t="n">
-        <v>1628.043523464254</v>
+        <v>1631.220320494273</v>
       </c>
       <c r="O5" t="n">
-        <v>40.34902134456615</v>
+        <v>40.38836862878065</v>
       </c>
       <c r="P5" t="n">
-        <v>329.121852193862</v>
+        <v>329.3065746003417</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34669,28 +34749,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6889569915862856</v>
+        <v>-0.7065382067173731</v>
       </c>
       <c r="J6" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K6" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01493785865132125</v>
+        <v>0.0157000461152984</v>
       </c>
       <c r="M6" t="n">
-        <v>39.66630070969279</v>
+        <v>39.70206652274123</v>
       </c>
       <c r="N6" t="n">
-        <v>1753.958290369362</v>
+        <v>1756.480625671139</v>
       </c>
       <c r="O6" t="n">
-        <v>41.88028522311377</v>
+        <v>41.91038804009262</v>
       </c>
       <c r="P6" t="n">
-        <v>322.1274924485181</v>
+        <v>322.3030540944051</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34750,7 +34830,7 @@
         <v>-0.5564827697054223</v>
       </c>
       <c r="J7" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K7" t="n">
         <v>592</v>
@@ -34819,28 +34899,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4681625278236055</v>
+        <v>-0.4815500779416862</v>
       </c>
       <c r="J8" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K8" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01078052607712054</v>
+        <v>0.01140288566417658</v>
       </c>
       <c r="M8" t="n">
-        <v>31.26282440925372</v>
+        <v>31.28556499291863</v>
       </c>
       <c r="N8" t="n">
-        <v>1112.383493203756</v>
+        <v>1113.769110148577</v>
       </c>
       <c r="O8" t="n">
-        <v>33.35241360387214</v>
+        <v>33.3731795031366</v>
       </c>
       <c r="P8" t="n">
-        <v>327.723093205536</v>
+        <v>327.8570269152257</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34891,28 +34971,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.3980496190728113</v>
+        <v>-0.4116521006083874</v>
       </c>
       <c r="J9" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K9" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007123495731388041</v>
+        <v>0.007618869081904012</v>
       </c>
       <c r="M9" t="n">
-        <v>32.66539255936263</v>
+        <v>32.68834064510359</v>
       </c>
       <c r="N9" t="n">
-        <v>1231.759603382526</v>
+        <v>1233.082467689294</v>
       </c>
       <c r="O9" t="n">
-        <v>35.0964329153623</v>
+        <v>35.11527399422214</v>
       </c>
       <c r="P9" t="n">
-        <v>326.0011531067848</v>
+        <v>326.136557399456</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34969,28 +35049,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5246277772661192</v>
+        <v>-0.540094333406722</v>
       </c>
       <c r="J10" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="K10" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009437689065709742</v>
+        <v>0.01000304424513454</v>
       </c>
       <c r="M10" t="n">
-        <v>38.12556499875353</v>
+        <v>38.14431586000466</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.667534075836</v>
+        <v>1655.178807591111</v>
       </c>
       <c r="O10" t="n">
-        <v>40.66531118872492</v>
+        <v>40.68388879631729</v>
       </c>
       <c r="P10" t="n">
-        <v>327.5669577538876</v>
+        <v>327.7194169029194</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35028,7 +35108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K707"/>
+  <dimension ref="A1:K709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71611,6 +71691,84 @@
         </is>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-43.048558406677024,173.07192839317693</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>-43.048430682319825,173.0710472286573</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-43.04837276420616,173.07198033304985</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>-43.047799078379406,173.07026605393824</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>-43.04770920616332,173.0692810175669</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>-43.04764758221596,173.06832024126774</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>-43.04787939640704,173.06644453236984</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>-43.047903504145424,173.065546774397</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>-43.04787313378933,173.06464548207106</t>
+        </is>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K709"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26180,7 +26180,9 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
+      <c r="G708" t="n">
+        <v>328.7361538461539</v>
+      </c>
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26199,7 +26201,9 @@
       <c r="B709" t="n">
         <v>284.26</v>
       </c>
-      <c r="C709" t="inlineStr"/>
+      <c r="C709" t="n">
+        <v>253.96</v>
+      </c>
       <c r="D709" t="n">
         <v>249.8042857142857</v>
       </c>
@@ -26222,6 +26226,123 @@
       <c r="K709" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>301.71</v>
+      </c>
+      <c r="C710" t="n">
+        <v>285.33</v>
+      </c>
+      <c r="D710" t="n">
+        <v>269.4471428571428</v>
+      </c>
+      <c r="E710" t="n">
+        <v>284.37</v>
+      </c>
+      <c r="F710" t="n">
+        <v>261.78</v>
+      </c>
+      <c r="G710" t="n">
+        <v>290.8384615384616</v>
+      </c>
+      <c r="H710" t="n">
+        <v>294.6840540540541</v>
+      </c>
+      <c r="I710" t="n">
+        <v>291.9885714285714</v>
+      </c>
+      <c r="J710" t="n">
+        <v>288.3727272727273</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>304.845</v>
+      </c>
+      <c r="C711" t="n">
+        <v>294.09</v>
+      </c>
+      <c r="D711" t="n">
+        <v>271.4828571428571</v>
+      </c>
+      <c r="E711" t="n">
+        <v>287.44</v>
+      </c>
+      <c r="F711" t="n">
+        <v>265.145</v>
+      </c>
+      <c r="G711" t="n">
+        <v>286.8230769230769</v>
+      </c>
+      <c r="H711" t="n">
+        <v>294.1435135135135</v>
+      </c>
+      <c r="I711" t="n">
+        <v>294.6114285714286</v>
+      </c>
+      <c r="J711" t="n">
+        <v>288.699090909091</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>307.605</v>
+      </c>
+      <c r="C712" t="n">
+        <v>307.56</v>
+      </c>
+      <c r="D712" t="n">
+        <v>275.5657142857143</v>
+      </c>
+      <c r="E712" t="n">
+        <v>293.24</v>
+      </c>
+      <c r="F712" t="n">
+        <v>266.325</v>
+      </c>
+      <c r="G712" t="n">
+        <v>287.9838461538461</v>
+      </c>
+      <c r="H712" t="n">
+        <v>296.9008108108108</v>
+      </c>
+      <c r="I712" t="n">
+        <v>296.6328571428571</v>
+      </c>
+      <c r="J712" t="n">
+        <v>292.9836363636364</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26236,7 +26357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34264,6 +34385,36 @@
       </c>
       <c r="B802" t="n">
         <v>-0.86</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -34437,28 +34588,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6549384372213779</v>
+        <v>-0.6636604364745545</v>
       </c>
       <c r="J2" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K2" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03473704318786697</v>
+        <v>0.03595625237536548</v>
       </c>
       <c r="M2" t="n">
-        <v>20.40014956083613</v>
+        <v>20.33749306780533</v>
       </c>
       <c r="N2" t="n">
-        <v>671.403335829223</v>
+        <v>668.3722686213459</v>
       </c>
       <c r="O2" t="n">
-        <v>25.91145182789307</v>
+        <v>25.85289671625495</v>
       </c>
       <c r="P2" t="n">
-        <v>330.8227496923341</v>
+        <v>330.9103402349317</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34515,28 +34666,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.7723483189799865</v>
+        <v>-0.8053807664328264</v>
       </c>
       <c r="J3" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K3" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03064094867995482</v>
+        <v>0.03342686679476281</v>
       </c>
       <c r="M3" t="n">
-        <v>28.4632335094794</v>
+        <v>28.46506399852376</v>
       </c>
       <c r="N3" t="n">
-        <v>1083.899242347857</v>
+        <v>1084.101020632173</v>
       </c>
       <c r="O3" t="n">
-        <v>32.92262508287967</v>
+        <v>32.92568937216308</v>
       </c>
       <c r="P3" t="n">
-        <v>332.3954751812546</v>
+        <v>332.7199542947627</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34593,28 +34744,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6455366312604123</v>
+        <v>-0.6754938239439695</v>
       </c>
       <c r="J4" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K4" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01098670421055004</v>
+        <v>0.01210520349497424</v>
       </c>
       <c r="M4" t="n">
-        <v>43.87504105727122</v>
+        <v>43.81776238636242</v>
       </c>
       <c r="N4" t="n">
-        <v>2101.423464588308</v>
+        <v>2095.800565314596</v>
       </c>
       <c r="O4" t="n">
-        <v>45.84128559048392</v>
+        <v>45.77991443105366</v>
       </c>
       <c r="P4" t="n">
-        <v>320.7039277862231</v>
+        <v>321.0064007750184</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34671,28 +34822,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7552186201558847</v>
+        <v>-0.774962080681551</v>
       </c>
       <c r="J5" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K5" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01930345238507436</v>
+        <v>0.02047059869031909</v>
       </c>
       <c r="M5" t="n">
-        <v>37.6269849846649</v>
+        <v>37.55252015882529</v>
       </c>
       <c r="N5" t="n">
-        <v>1631.220320494273</v>
+        <v>1625.391819373453</v>
       </c>
       <c r="O5" t="n">
-        <v>40.38836862878065</v>
+        <v>40.31614836977179</v>
       </c>
       <c r="P5" t="n">
-        <v>329.3065746003417</v>
+        <v>329.5044060802487</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34749,28 +34900,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7065382067173731</v>
+        <v>-0.7424681114708497</v>
       </c>
       <c r="J6" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K6" t="n">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0157000461152984</v>
+        <v>0.01739937437945849</v>
       </c>
       <c r="M6" t="n">
-        <v>39.70206652274123</v>
+        <v>39.71194722437486</v>
       </c>
       <c r="N6" t="n">
-        <v>1756.480625671139</v>
+        <v>1755.471939475313</v>
       </c>
       <c r="O6" t="n">
-        <v>41.91038804009262</v>
+        <v>41.89835246731442</v>
       </c>
       <c r="P6" t="n">
-        <v>322.3030540944051</v>
+        <v>322.6627211255004</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34827,28 +34978,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5564827697054223</v>
+        <v>-0.5824736598461357</v>
       </c>
       <c r="J7" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K7" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01921518380146681</v>
+        <v>0.02118231265506387</v>
       </c>
       <c r="M7" t="n">
-        <v>26.77644372485266</v>
+        <v>26.78868888538898</v>
       </c>
       <c r="N7" t="n">
-        <v>885.6687819018596</v>
+        <v>884.5308043831981</v>
       </c>
       <c r="O7" t="n">
-        <v>29.76018786738181</v>
+        <v>29.74106259673985</v>
       </c>
       <c r="P7" t="n">
-        <v>333.4853845324567</v>
+        <v>333.7435623414469</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34899,28 +35050,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4815500779416862</v>
+        <v>-0.4994384668025578</v>
       </c>
       <c r="J8" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K8" t="n">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01140288566417658</v>
+        <v>0.01234999616512378</v>
       </c>
       <c r="M8" t="n">
-        <v>31.28556499291863</v>
+        <v>31.23434669387406</v>
       </c>
       <c r="N8" t="n">
-        <v>1113.769110148577</v>
+        <v>1110.447792738007</v>
       </c>
       <c r="O8" t="n">
-        <v>33.3731795031366</v>
+        <v>33.32338207232283</v>
       </c>
       <c r="P8" t="n">
-        <v>327.8570269152257</v>
+        <v>328.0364176084325</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34971,28 +35122,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4116521006083874</v>
+        <v>-0.4303069552457034</v>
       </c>
       <c r="J9" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K9" t="n">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007618869081904012</v>
+        <v>0.008383691355133616</v>
       </c>
       <c r="M9" t="n">
-        <v>32.68834064510359</v>
+        <v>32.63657777182927</v>
       </c>
       <c r="N9" t="n">
-        <v>1233.082467689294</v>
+        <v>1229.371959075676</v>
       </c>
       <c r="O9" t="n">
-        <v>35.11527399422214</v>
+        <v>35.06240093142048</v>
       </c>
       <c r="P9" t="n">
-        <v>326.136557399456</v>
+        <v>326.3226930551103</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35049,28 +35200,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.540094333406722</v>
+        <v>-0.5615683432206977</v>
       </c>
       <c r="J10" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="K10" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01000304424513454</v>
+        <v>0.01089060914850959</v>
       </c>
       <c r="M10" t="n">
-        <v>38.14431586000466</v>
+        <v>38.06801813240923</v>
       </c>
       <c r="N10" t="n">
-        <v>1655.178807591111</v>
+        <v>1649.744235365091</v>
       </c>
       <c r="O10" t="n">
-        <v>40.68388879631729</v>
+        <v>40.6170436561438</v>
       </c>
       <c r="P10" t="n">
-        <v>327.7194169029194</v>
+        <v>327.931626768906</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35108,7 +35259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K709"/>
+  <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71710,7 +71861,11 @@
       <c r="D708" t="inlineStr"/>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr"/>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>-43.04836942264351,173.0673831821574</t>
+        </is>
+      </c>
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -71731,7 +71886,11 @@
           <t>-43.04837276420616,173.07198033304985</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr"/>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-43.04797330291488,173.0711752000429</t>
+        </is>
+      </c>
       <c r="D709" t="inlineStr">
         <is>
           <t>-43.047799078379406,173.07026605393824</t>
@@ -71766,6 +71925,177 @@
       <c r="K709" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-43.04852669441098,173.0719372657979</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-43.048250024092084,173.0710977757302</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>-43.04797346135802,173.07022563902228</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>-43.04801237350795,173.06924558061743</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>-43.047782685330255,173.06831465475125</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>-43.04802817791916,173.06737761578867</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>-43.048094102958714,173.0664584665978</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>-43.04810068370067,173.06555956920292</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>-43.048098985910535,173.06466013517868</t>
+        </is>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:13:36+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-43.04855434891841,173.07192952847802</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-43.04832729782964,173.07107615504577</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-43.0479915337747,173.0702214505543</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>-43.0480399178614,173.0692423609662</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>-43.04781297326979,173.068313402341</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>-43.04799202192179,173.06737702601743</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>-43.04808924088945,173.06645815105355</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>-43.04812427585803,173.0655611000826</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>-43.04810192149741,173.064660325638</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>-43.04857869546987,173.07192271666912</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>-43.048446119422955,173.07104290943568</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>-43.0480277800666,173.07021305009673</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>-43.048091956052986,173.06923627822962</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>-43.04782359430056,173.0683129631597</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>-43.04800247391416,173.0673771965087</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>-43.04811404230463,173.06645976064524</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>-43.04814245826682,173.06556227992806</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr">
+        <is>
+          <t>-43.04814046027425,173.06466282601463</t>
+        </is>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K712"/>
+  <dimension ref="A1:K715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26343,6 +26343,123 @@
       <c r="K712" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="C713" t="n">
+        <v>257.27</v>
+      </c>
+      <c r="D713" t="n">
+        <v>248.7171428571429</v>
+      </c>
+      <c r="E713" t="n">
+        <v>247.6600000000001</v>
+      </c>
+      <c r="F713" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="G713" t="n">
+        <v>273.4861538461539</v>
+      </c>
+      <c r="H713" t="n">
+        <v>269.8210810810811</v>
+      </c>
+      <c r="I713" t="n">
+        <v>268.4985714285714</v>
+      </c>
+      <c r="J713" t="n">
+        <v>262.0627272727273</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>302.88</v>
+      </c>
+      <c r="C714" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="D714" t="n">
+        <v>269.1142857142857</v>
+      </c>
+      <c r="E714" t="n">
+        <v>283.67</v>
+      </c>
+      <c r="F714" t="n">
+        <v>264.12</v>
+      </c>
+      <c r="G714" t="n">
+        <v>299.0176923076923</v>
+      </c>
+      <c r="H714" t="n">
+        <v>292.7767567567568</v>
+      </c>
+      <c r="I714" t="n">
+        <v>291.1771428571429</v>
+      </c>
+      <c r="J714" t="n">
+        <v>288.6181818181818</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>309.65</v>
+      </c>
+      <c r="C715" t="n">
+        <v>302.62</v>
+      </c>
+      <c r="D715" t="n">
+        <v>269.8285714285714</v>
+      </c>
+      <c r="E715" t="n">
+        <v>279.37</v>
+      </c>
+      <c r="F715" t="n">
+        <v>274.66</v>
+      </c>
+      <c r="G715" t="n">
+        <v>292.3484615384615</v>
+      </c>
+      <c r="H715" t="n">
+        <v>290.6816216216216</v>
+      </c>
+      <c r="I715" t="n">
+        <v>284.9942857142857</v>
+      </c>
+      <c r="J715" t="n">
+        <v>283.5781818181818</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -26357,7 +26474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B805"/>
+  <dimension ref="A1:B808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34415,6 +34532,36 @@
       </c>
       <c r="B805" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>-0.92</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -34588,28 +34735,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6636604364745545</v>
+        <v>-0.6771609472734457</v>
       </c>
       <c r="J2" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K2" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03595625237536548</v>
+        <v>0.03765169765534226</v>
       </c>
       <c r="M2" t="n">
-        <v>20.33749306780533</v>
+        <v>20.29944899414282</v>
       </c>
       <c r="N2" t="n">
-        <v>668.3722686213459</v>
+        <v>666.4915823274591</v>
       </c>
       <c r="O2" t="n">
-        <v>25.85289671625495</v>
+        <v>25.81649825842884</v>
       </c>
       <c r="P2" t="n">
-        <v>330.9103402349317</v>
+        <v>331.046302731258</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34666,28 +34813,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8053807664328264</v>
+        <v>-0.8299129710346784</v>
       </c>
       <c r="J3" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K3" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03342686679476281</v>
+        <v>0.03557762885688753</v>
       </c>
       <c r="M3" t="n">
-        <v>28.46506399852376</v>
+        <v>28.46551320306086</v>
       </c>
       <c r="N3" t="n">
-        <v>1084.101020632173</v>
+        <v>1084.246798677062</v>
       </c>
       <c r="O3" t="n">
-        <v>32.92568937216308</v>
+        <v>32.9279030409934</v>
       </c>
       <c r="P3" t="n">
-        <v>332.7199542947627</v>
+        <v>332.9619640097389</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34744,28 +34891,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6754938239439695</v>
+        <v>-0.713685079707459</v>
       </c>
       <c r="J4" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K4" t="n">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01210520349497424</v>
+        <v>0.01356708925693517</v>
       </c>
       <c r="M4" t="n">
-        <v>43.81776238636242</v>
+        <v>43.80542054745813</v>
       </c>
       <c r="N4" t="n">
-        <v>2095.800565314596</v>
+        <v>2094.017485491981</v>
       </c>
       <c r="O4" t="n">
-        <v>45.77991443105366</v>
+        <v>45.7604358096815</v>
       </c>
       <c r="P4" t="n">
-        <v>321.0064007750184</v>
+        <v>321.3933675400418</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34822,28 +34969,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.774962080681551</v>
+        <v>-0.810768685833797</v>
       </c>
       <c r="J5" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K5" t="n">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02047059869031909</v>
+        <v>0.02245536529450176</v>
       </c>
       <c r="M5" t="n">
-        <v>37.55252015882529</v>
+        <v>37.57018083134741</v>
       </c>
       <c r="N5" t="n">
-        <v>1625.391819373453</v>
+        <v>1626.110408222109</v>
       </c>
       <c r="O5" t="n">
-        <v>40.31614836977179</v>
+        <v>40.32505930835203</v>
       </c>
       <c r="P5" t="n">
-        <v>329.5044060802487</v>
+        <v>329.8644175951636</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34900,28 +35047,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7424681114708497</v>
+        <v>-0.7801981657375632</v>
       </c>
       <c r="J6" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K6" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01739937437945849</v>
+        <v>0.0192599024267075</v>
       </c>
       <c r="M6" t="n">
-        <v>39.71194722437486</v>
+        <v>39.73049257362294</v>
       </c>
       <c r="N6" t="n">
-        <v>1755.471939475313</v>
+        <v>1756.068928720576</v>
       </c>
       <c r="O6" t="n">
-        <v>41.89835246731442</v>
+        <v>41.90547611852867</v>
       </c>
       <c r="P6" t="n">
-        <v>322.6627211255004</v>
+        <v>323.0416370810593</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34978,28 +35125,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5824736598461357</v>
+        <v>-0.6110443668656159</v>
       </c>
       <c r="J7" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K7" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02118231265506387</v>
+        <v>0.02336060450623545</v>
       </c>
       <c r="M7" t="n">
-        <v>26.78868888538898</v>
+        <v>26.82822787941338</v>
       </c>
       <c r="N7" t="n">
-        <v>884.5308043831981</v>
+        <v>885.2298768513198</v>
       </c>
       <c r="O7" t="n">
-        <v>29.74106259673985</v>
+        <v>29.75281292334088</v>
       </c>
       <c r="P7" t="n">
-        <v>333.7435623414469</v>
+        <v>334.0281666696397</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35050,28 +35197,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4994384668025578</v>
+        <v>-0.5264279131853841</v>
       </c>
       <c r="J8" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K8" t="n">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01234999616512378</v>
+        <v>0.01377124383255213</v>
       </c>
       <c r="M8" t="n">
-        <v>31.23434669387406</v>
+        <v>31.23065511409465</v>
       </c>
       <c r="N8" t="n">
-        <v>1110.447792738007</v>
+        <v>1110.092509903769</v>
       </c>
       <c r="O8" t="n">
-        <v>33.32338207232283</v>
+        <v>33.31805081189127</v>
       </c>
       <c r="P8" t="n">
-        <v>328.0364176084325</v>
+        <v>328.3079451474786</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35122,28 +35269,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4303069552457034</v>
+        <v>-0.4598261504261366</v>
       </c>
       <c r="J9" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K9" t="n">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008383691355133616</v>
+        <v>0.009607999287414293</v>
       </c>
       <c r="M9" t="n">
-        <v>32.63657777182927</v>
+        <v>32.64335173930022</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.371959075676</v>
+        <v>1229.258027623777</v>
       </c>
       <c r="O9" t="n">
-        <v>35.06240093142048</v>
+        <v>35.06077619825005</v>
       </c>
       <c r="P9" t="n">
-        <v>326.3226930551103</v>
+        <v>326.6182502277935</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35200,28 +35347,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5615683432206977</v>
+        <v>-0.5932355666288645</v>
       </c>
       <c r="J10" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="K10" t="n">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01089060914850959</v>
+        <v>0.01220405466966656</v>
       </c>
       <c r="M10" t="n">
-        <v>38.06801813240923</v>
+        <v>38.04464147722545</v>
       </c>
       <c r="N10" t="n">
-        <v>1649.744235365091</v>
+        <v>1648.310632428397</v>
       </c>
       <c r="O10" t="n">
-        <v>40.6170436561438</v>
+        <v>40.59939202042806</v>
       </c>
       <c r="P10" t="n">
-        <v>327.931626768906</v>
+        <v>328.245668841948</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35259,7 +35406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K712"/>
+  <dimension ref="A1:K715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72099,6 +72246,177 @@
         </is>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>-43.04838458463519,173.0719770258874</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>-43.04800250110402,173.071167030663</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>-43.0477894270736,173.07026829071347</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>-43.04768300762266,173.06928407987354</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>-43.047637051193576,173.06832067672468</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>-43.04787193136804,173.06737506712338</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>-43.047870464785426,173.0664439527192</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>-43.0478893951095,173.06554585887739</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>-43.04786233181034,173.06464478124988</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>-43.04853701523201,173.0719343781865</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>-43.04832870922204,173.07107576014695</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>-43.04797050635934,173.07022632387333</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>-43.04800609303645,173.0692463147395</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>-43.04780374737441,173.0683137838331</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>-43.04810182671531,173.06737881713912</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>-43.04807694714736,173.06645735320018</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>-43.04809338503757,173.06555909559768</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>-43.04810119373353,173.06466027842106</t>
+        </is>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>-43.048596734852794,173.07191766951013</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>-43.048402542685594,173.0710551019757</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>-43.0479768475582,173.07022485423585</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>-43.04796751299696,173.069250824343</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>-43.04789861658081,173.06830986097236</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>-43.04804177451349,173.06737783757447</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>-43.048058101766856,173.06645613015166</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>-43.04803777128041,173.06555548686288</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>-43.048055859767736,173.0646573371801</t>
+        </is>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K715"/>
+  <dimension ref="A1:K718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26458,6 +26458,119 @@
         <v>283.5781818181818</v>
       </c>
       <c r="K715" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:13:59+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>309.71</v>
+      </c>
+      <c r="C716" t="n">
+        <v>304.53</v>
+      </c>
+      <c r="D716" t="n">
+        <v>278.3014285714286</v>
+      </c>
+      <c r="E716" t="n">
+        <v>285.63</v>
+      </c>
+      <c r="F716" t="n">
+        <v>276.28</v>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="n">
+        <v>291.5289189189189</v>
+      </c>
+      <c r="I716" t="n">
+        <v>293.4457142857143</v>
+      </c>
+      <c r="J716" t="n">
+        <v>283.9227272727272</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>312.55</v>
+      </c>
+      <c r="C717" t="n">
+        <v>294.37</v>
+      </c>
+      <c r="D717" t="n">
+        <v>313.3542857142857</v>
+      </c>
+      <c r="E717" t="n">
+        <v>319.63</v>
+      </c>
+      <c r="F717" t="n">
+        <v>328.45</v>
+      </c>
+      <c r="G717" t="n">
+        <v>323.2623076923077</v>
+      </c>
+      <c r="H717" t="n">
+        <v>300.9256756756757</v>
+      </c>
+      <c r="I717" t="n">
+        <v>307.0471428571428</v>
+      </c>
+      <c r="J717" t="n">
+        <v>285.2763636363636</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:01+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>311.775</v>
+      </c>
+      <c r="C718" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="D718" t="n">
+        <v>339.4114285714285</v>
+      </c>
+      <c r="E718" t="n">
+        <v>346.96</v>
+      </c>
+      <c r="F718" t="n">
+        <v>343.505</v>
+      </c>
+      <c r="G718" t="n">
+        <v>340.8969230769231</v>
+      </c>
+      <c r="H718" t="n">
+        <v>337.8027027027027</v>
+      </c>
+      <c r="I718" t="n">
+        <v>329.3157142857143</v>
+      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -26474,7 +26587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B808"/>
+  <dimension ref="A1:B811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34562,6 +34675,36 @@
       </c>
       <c r="B808" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -34735,28 +34878,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6771609472734457</v>
+        <v>-0.679101298238016</v>
       </c>
       <c r="J2" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K2" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03765169765534226</v>
+        <v>0.03822041357631711</v>
       </c>
       <c r="M2" t="n">
-        <v>20.29944899414282</v>
+        <v>20.20462218003482</v>
       </c>
       <c r="N2" t="n">
-        <v>666.4915823274591</v>
+        <v>663.0910944449965</v>
       </c>
       <c r="O2" t="n">
-        <v>25.81649825842884</v>
+        <v>25.75055522595574</v>
       </c>
       <c r="P2" t="n">
-        <v>331.046302731258</v>
+        <v>331.0659554748399</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34813,28 +34956,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8299129710346784</v>
+        <v>-0.8341847821437587</v>
       </c>
       <c r="J3" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K3" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03557762885688753</v>
+        <v>0.03624559664456628</v>
       </c>
       <c r="M3" t="n">
-        <v>28.46551320306086</v>
+        <v>28.38080601425988</v>
       </c>
       <c r="N3" t="n">
-        <v>1084.246798677062</v>
+        <v>1079.581587860441</v>
       </c>
       <c r="O3" t="n">
-        <v>32.9279030409934</v>
+        <v>32.85698689564277</v>
       </c>
       <c r="P3" t="n">
-        <v>332.9619640097389</v>
+        <v>333.0043057314372</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34891,28 +35034,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.713685079707459</v>
+        <v>-0.7066372140931771</v>
       </c>
       <c r="J4" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K4" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01356708925693517</v>
+        <v>0.01341046030197102</v>
       </c>
       <c r="M4" t="n">
-        <v>43.80542054745813</v>
+        <v>43.70379274972829</v>
       </c>
       <c r="N4" t="n">
-        <v>2094.017485491981</v>
+        <v>2086.858371181283</v>
       </c>
       <c r="O4" t="n">
-        <v>45.7604358096815</v>
+        <v>45.68214499321681</v>
       </c>
       <c r="P4" t="n">
-        <v>321.3933675400418</v>
+        <v>321.3213670761982</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34969,28 +35112,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.810768685833797</v>
+        <v>-0.8028523195540561</v>
       </c>
       <c r="J5" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K5" t="n">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02245536529450176</v>
+        <v>0.02219060230458192</v>
       </c>
       <c r="M5" t="n">
-        <v>37.57018083134741</v>
+        <v>37.50113385185814</v>
       </c>
       <c r="N5" t="n">
-        <v>1626.110408222109</v>
+        <v>1621.545190523403</v>
       </c>
       <c r="O5" t="n">
-        <v>40.32505930835203</v>
+        <v>40.26841430356307</v>
       </c>
       <c r="P5" t="n">
-        <v>329.8644175951636</v>
+        <v>329.7841895089477</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35047,28 +35190,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7801981657375632</v>
+        <v>-0.7681955307891059</v>
       </c>
       <c r="J6" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K6" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0192599024267075</v>
+        <v>0.01880728220204342</v>
       </c>
       <c r="M6" t="n">
-        <v>39.73049257362294</v>
+        <v>39.68564356949671</v>
       </c>
       <c r="N6" t="n">
-        <v>1756.068928720576</v>
+        <v>1752.446813334593</v>
       </c>
       <c r="O6" t="n">
-        <v>41.90547611852867</v>
+        <v>41.8622361243949</v>
       </c>
       <c r="P6" t="n">
-        <v>323.0416370810593</v>
+        <v>322.9202370792178</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35125,28 +35268,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6110443668656159</v>
+        <v>-0.6022666508241127</v>
       </c>
       <c r="J7" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K7" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02336060450623545</v>
+        <v>0.02283769586512419</v>
       </c>
       <c r="M7" t="n">
-        <v>26.82822787941338</v>
+        <v>26.77842982659469</v>
       </c>
       <c r="N7" t="n">
-        <v>885.2298768513198</v>
+        <v>883.1861533613537</v>
       </c>
       <c r="O7" t="n">
-        <v>29.75281292334088</v>
+        <v>29.71844803083354</v>
       </c>
       <c r="P7" t="n">
-        <v>334.0281666696397</v>
+        <v>333.940214655796</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35197,28 +35340,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.5264279131853841</v>
+        <v>-0.5303560771951422</v>
       </c>
       <c r="J8" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K8" t="n">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01377124383255213</v>
+        <v>0.0140808538135867</v>
       </c>
       <c r="M8" t="n">
-        <v>31.23065511409465</v>
+        <v>31.17845281935428</v>
       </c>
       <c r="N8" t="n">
-        <v>1110.092509903769</v>
+        <v>1106.899182866847</v>
       </c>
       <c r="O8" t="n">
-        <v>33.31805081189127</v>
+        <v>33.27009442227129</v>
       </c>
       <c r="P8" t="n">
-        <v>328.3079451474786</v>
+        <v>328.3475155251494</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35269,28 +35412,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4598261504261366</v>
+        <v>-0.4639203299261669</v>
       </c>
       <c r="J9" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K9" t="n">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009607999287414293</v>
+        <v>0.009860856171462706</v>
       </c>
       <c r="M9" t="n">
-        <v>32.64335173930022</v>
+        <v>32.55928036006892</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.258027623777</v>
+        <v>1224.667228998842</v>
       </c>
       <c r="O9" t="n">
-        <v>35.06077619825005</v>
+        <v>34.99524580566398</v>
       </c>
       <c r="P9" t="n">
-        <v>326.6182502277935</v>
+        <v>326.6593298200949</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35347,28 +35490,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5932355666288645</v>
+        <v>-0.6100957600080559</v>
       </c>
       <c r="J10" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="K10" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01220405466966656</v>
+        <v>0.01295974468342609</v>
       </c>
       <c r="M10" t="n">
-        <v>38.04464147722545</v>
+        <v>38.0063756351943</v>
       </c>
       <c r="N10" t="n">
-        <v>1648.310632428397</v>
+        <v>1645.490773702426</v>
       </c>
       <c r="O10" t="n">
-        <v>40.59939202042806</v>
+        <v>40.564649310729</v>
       </c>
       <c r="P10" t="n">
-        <v>328.245668841948</v>
+        <v>328.4136530100685</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35406,7 +35549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K715"/>
+  <dimension ref="A1:K718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72417,6 +72560,169 @@
         </is>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:13:59+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>-43.04859726412562,173.0719175214272</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>-43.0484193911814,173.071050387858</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>-43.048052066857224,173.07020742137314</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>-43.04802367835663,173.0692442591974</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>-43.047913197995676,173.06830925802686</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>-43.04806572306045,173.06645662476677</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>-43.04811379045477,173.06556041969148</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>-43.04805895889709,173.06465753824963</t>
+        </is>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>-43.048622316373326,173.07191051216475</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>-43.048329767766354,173.0710754639728</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>-43.04836325480394,173.07013529983723</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>-43.04832872981468,173.06920860164902</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>-43.048382773538336,173.06828984079834</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>-43.048320134125944,173.06738237816134</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>-43.04815024527192,173.06646211019077</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>-43.04823613300779,173.0655683584362</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>-43.04807113463216,173.0646583282038</t>
+        </is>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:01+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>-43.04861547993254,173.07191242490416</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>-43.04856379424811,173.07100998455525</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>-43.04859458166392,173.07008168658473</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>-43.048573937334645,173.0691799390178</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>-43.04851828167307,173.06828423740166</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>-43.04847892266648,173.06738496833057</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>-43.048481947775144,173.06648363756622</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>-43.04843643504021,173.06558135600028</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K718"/>
+  <dimension ref="A1:K720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26569,10 +26569,88 @@
       <c r="I718" t="n">
         <v>329.3157142857143</v>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>353.2881818181818</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>307.22</v>
+      </c>
+      <c r="C719" t="n">
+        <v>345.13</v>
+      </c>
+      <c r="D719" t="n">
+        <v>351.0357142857143</v>
+      </c>
+      <c r="E719" t="n">
+        <v>342.05</v>
+      </c>
+      <c r="F719" t="n">
+        <v>349.95</v>
+      </c>
+      <c r="G719" t="n">
+        <v>344.4884615384615</v>
+      </c>
+      <c r="H719" t="n">
+        <v>349.642972972973</v>
+      </c>
+      <c r="I719" t="n">
+        <v>351.1828571428572</v>
+      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:02+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>320.755</v>
+      </c>
+      <c r="C720" t="n">
+        <v>321.57</v>
+      </c>
+      <c r="D720" t="n">
+        <v>327.1585714285715</v>
+      </c>
+      <c r="E720" t="n">
+        <v>337.18</v>
+      </c>
+      <c r="F720" t="n">
+        <v>336.535</v>
+      </c>
+      <c r="G720" t="n">
+        <v>338.2730769230769</v>
+      </c>
+      <c r="H720" t="n">
+        <v>333.0072972972973</v>
+      </c>
+      <c r="I720" t="n">
+        <v>332.4542857142857</v>
+      </c>
+      <c r="J720" t="n">
+        <v>333.5218181818182</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -26587,7 +26665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B811"/>
+  <dimension ref="A1:B813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34705,6 +34783,26 @@
       </c>
       <c r="B811" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -35549,7 +35647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K718"/>
+  <dimension ref="A1:K720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72716,10 +72814,124 @@
           <t>-43.04843643504021,173.06558135600028</t>
         </is>
       </c>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>-43.04868288964059,173.0646980188988</t>
+        </is>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>-43.048575299302414,173.07192366686743</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>-43.04877753192509,173.0709501813965</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>-43.04869777828993,173.0700577691834</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>-43.04852988432008,173.0691850884498</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>-43.04857629229496,173.06828183859704</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>-43.04851126219463,173.0673854958568</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>-43.04858844896085,173.06649054950557</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>-43.048633126282205,173.0655941193444</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:02+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>-43.04869469443096,173.07189026178114</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>-43.04856970445267,173.0710083309035</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>-43.048485804777926,173.0701068972086</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>-43.048486190189024,173.069190195924</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>-43.04845554559253,173.06828683160424</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>-43.04845529659427,173.06738458293964</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>-43.04843881393123,173.06648083818163</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>-43.048464665958505,173.06558318790658</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>-43.04850509449092,173.06468648345816</t>
+        </is>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -34976,28 +34976,28 @@
         <v>0.1194</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.679101298238016</v>
+        <v>-0.6787052442007044</v>
       </c>
       <c r="J2" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K2" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03822041357631711</v>
+        <v>0.0384094105691406</v>
       </c>
       <c r="M2" t="n">
-        <v>20.20462218003482</v>
+        <v>20.15890565524859</v>
       </c>
       <c r="N2" t="n">
-        <v>663.0910944449965</v>
+        <v>660.9823398984945</v>
       </c>
       <c r="O2" t="n">
-        <v>25.75055522595574</v>
+        <v>25.70957681290173</v>
       </c>
       <c r="P2" t="n">
-        <v>331.0659554748399</v>
+        <v>331.0619141599398</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35054,28 +35054,28 @@
         <v>0.051</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8341847821437587</v>
+        <v>-0.8209932801444321</v>
       </c>
       <c r="J3" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K3" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03624559664456628</v>
+        <v>0.03530077726787306</v>
       </c>
       <c r="M3" t="n">
-        <v>28.38080601425988</v>
+        <v>28.35601897221967</v>
       </c>
       <c r="N3" t="n">
-        <v>1079.581587860441</v>
+        <v>1078.077105467642</v>
       </c>
       <c r="O3" t="n">
-        <v>32.85698689564277</v>
+        <v>32.83408450783488</v>
       </c>
       <c r="P3" t="n">
-        <v>333.0043057314372</v>
+        <v>332.8731831315791</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35132,28 +35132,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.7066372140931771</v>
+        <v>-0.6843826615135122</v>
       </c>
       <c r="J4" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K4" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01341046030197102</v>
+        <v>0.01264058209123819</v>
       </c>
       <c r="M4" t="n">
-        <v>43.70379274972829</v>
+        <v>43.67548504754687</v>
       </c>
       <c r="N4" t="n">
-        <v>2086.858371181283</v>
+        <v>2084.677405603203</v>
       </c>
       <c r="O4" t="n">
-        <v>45.68214499321681</v>
+        <v>45.65826765880636</v>
       </c>
       <c r="P4" t="n">
-        <v>321.3213670761982</v>
+        <v>321.0943425299911</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35210,28 +35210,28 @@
         <v>0.0537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.8028523195540561</v>
+        <v>-0.7843078834601325</v>
       </c>
       <c r="J5" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02219060230458192</v>
+        <v>0.02129130086509845</v>
       </c>
       <c r="M5" t="n">
-        <v>37.50113385185814</v>
+        <v>37.47267230797691</v>
       </c>
       <c r="N5" t="n">
-        <v>1621.545190523403</v>
+        <v>1619.314350038058</v>
       </c>
       <c r="O5" t="n">
-        <v>40.26841430356307</v>
+        <v>40.24070513842989</v>
       </c>
       <c r="P5" t="n">
-        <v>329.7841895089477</v>
+        <v>329.596426143542</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35288,28 +35288,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.7681955307891059</v>
+        <v>-0.7442552704347607</v>
       </c>
       <c r="J6" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K6" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01880728220204342</v>
+        <v>0.01773038606380684</v>
       </c>
       <c r="M6" t="n">
-        <v>39.68564356949671</v>
+        <v>39.68128806240544</v>
       </c>
       <c r="N6" t="n">
-        <v>1752.446813334593</v>
+        <v>1752.143404011957</v>
       </c>
       <c r="O6" t="n">
-        <v>41.8622361243949</v>
+        <v>41.85861206504531</v>
       </c>
       <c r="P6" t="n">
-        <v>322.9202370792178</v>
+        <v>322.6781450934499</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35366,28 +35366,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6022666508241127</v>
+        <v>-0.5878500941132204</v>
       </c>
       <c r="J7" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K7" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02283769586512419</v>
+        <v>0.02188118323721555</v>
       </c>
       <c r="M7" t="n">
-        <v>26.77842982659469</v>
+        <v>26.75415681575668</v>
       </c>
       <c r="N7" t="n">
-        <v>883.1861533613537</v>
+        <v>882.0478524806737</v>
       </c>
       <c r="O7" t="n">
-        <v>29.71844803083354</v>
+        <v>29.69929043732651</v>
       </c>
       <c r="P7" t="n">
-        <v>333.940214655796</v>
+        <v>333.7956550351183</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35438,28 +35438,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.5303560771951422</v>
+        <v>-0.5147889243715379</v>
       </c>
       <c r="J8" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K8" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0140808538135867</v>
+        <v>0.01333046024053619</v>
       </c>
       <c r="M8" t="n">
-        <v>31.17845281935428</v>
+        <v>31.16527396132464</v>
       </c>
       <c r="N8" t="n">
-        <v>1106.899182866847</v>
+        <v>1105.898235061817</v>
       </c>
       <c r="O8" t="n">
-        <v>33.27009442227129</v>
+        <v>33.25504826431345</v>
       </c>
       <c r="P8" t="n">
-        <v>328.3475155251494</v>
+        <v>328.1898790402716</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35510,28 +35510,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.4639203299261669</v>
+        <v>-0.448133908065581</v>
       </c>
       <c r="J9" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K9" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009860856171462706</v>
+        <v>0.009245101008852452</v>
       </c>
       <c r="M9" t="n">
-        <v>32.55928036006892</v>
+        <v>32.54138783079475</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.667228998842</v>
+        <v>1223.429531031312</v>
       </c>
       <c r="O9" t="n">
-        <v>34.99524580566398</v>
+        <v>34.97755753381462</v>
       </c>
       <c r="P9" t="n">
-        <v>326.6593298200949</v>
+        <v>326.5002523885175</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35588,28 +35588,28 @@
         <v>0.157</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6100957600080559</v>
+        <v>-0.5917301932641164</v>
       </c>
       <c r="J10" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K10" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01295974468342609</v>
+        <v>0.01225209020234785</v>
       </c>
       <c r="M10" t="n">
-        <v>38.0063756351943</v>
+        <v>37.98870923717257</v>
       </c>
       <c r="N10" t="n">
-        <v>1645.490773702426</v>
+        <v>1643.522541129799</v>
       </c>
       <c r="O10" t="n">
-        <v>40.564649310729</v>
+        <v>40.54038161055961</v>
       </c>
       <c r="P10" t="n">
-        <v>328.4136530100685</v>
+        <v>328.2302859336393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">

--- a/data/nzd0416/nzd0416.xlsx
+++ b/data/nzd0416/nzd0416.xlsx
@@ -34967,13 +34967,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0603</v>
+        <v>0.0516</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1194</v>
+        <v>0.0696</v>
       </c>
       <c r="I2" t="n">
         <v>-0.6787273925753446</v>
@@ -35045,13 +35045,13 @@
         <v>0.874940909735556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0322</v>
+        <v>0.0483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.051</v>
+        <v>0.0728</v>
       </c>
       <c r="I3" t="n">
         <v>-0.8209932801444321</v>
@@ -35123,13 +35123,13 @@
         <v>0.7498818194711122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0394</v>
+        <v>0.0445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.0675</v>
       </c>
       <c r="I4" t="n">
         <v>-0.6843796152234705</v>
@@ -35201,13 +35201,13 @@
         <v>0.6252362268547286</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0318</v>
+        <v>0.0481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0537</v>
+        <v>0.073</v>
       </c>
       <c r="I5" t="n">
         <v>-0.7843078834601325</v>
@@ -35279,13 +35279,13 @@
         <v>0.5001771365881211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0497</v>
+        <v>0.0476</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.0751</v>
       </c>
       <c r="I6" t="n">
         <v>-0.7442657706390383</v>
@@ -35360,10 +35360,10 @@
         <v>0.065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.0542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0794</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5878599565390117</v>
@@ -35434,9 +35434,15 @@
       <c r="E8" t="n">
         <v>0.2501181805219434</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0494</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0709</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.5148005808222702</v>
       </c>
@@ -35506,9 +35512,15 @@
       <c r="E9" t="n">
         <v>0.125059090260999</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0631</v>
+      </c>
       <c r="I9" t="n">
         <v>-0.4481666610004756</v>
       </c>
@@ -35579,13 +35591,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0336</v>
+        <v>0.0359</v>
       </c>
       <c r="H10" t="n">
-        <v>0.157</v>
+        <v>0.0475</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5917341297447345</v>
